--- a/biology/Médecine/1210_en_santé_et_médecine/1210_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1210_en_santé_et_médecine/1210_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1210_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1210_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1210 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1210_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1210_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Oybeck, premier sultan de Delhi, meurt écrasé par son cheval après une chute au cours d'une partie de polo[2].
-Le roi Philippe Auguste ordonne que toute la paille qui se trouve dans ses palais soit livrée à l'Hôtel-Dieu de Paris « chaque fois qu'[il] partir[a] pour aller coucher ailleurs[3] ».
-Deux petits hôpitaux et une léproserie sont attestés à L'Isle Jourdain, près de Toulouse en Languedoc[4].
-La communauté juive de Ratisbonne, en Bavière, dispose d'un hôpital[4].
-1210-1211 ? : le roi Jean accorde à la léproserie de Sturbridge, dans le comté de Cambridge, la veille de l'Exaltation de la Sainte-Croix, une foire annuelle qui deviendra pour plusieurs siècles l'un des plus grands marchés d'Angleterre[5].
-Vers 1210-1250 : dates probables du séjour à Bologne de Roland de Parme, chirurgien de l'école de Salerne, élève de Roger et auteur en 1264 d'une Chirurgia, important traité de chirurgie plus connu sous le nom de Rolandina[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Oybeck, premier sultan de Delhi, meurt écrasé par son cheval après une chute au cours d'une partie de polo.
+Le roi Philippe Auguste ordonne que toute la paille qui se trouve dans ses palais soit livrée à l'Hôtel-Dieu de Paris « chaque fois qu'[il] partir[a] pour aller coucher ailleurs ».
+Deux petits hôpitaux et une léproserie sont attestés à L'Isle Jourdain, près de Toulouse en Languedoc.
+La communauté juive de Ratisbonne, en Bavière, dispose d'un hôpital.
+1210-1211 ? : le roi Jean accorde à la léproserie de Sturbridge, dans le comté de Cambridge, la veille de l'Exaltation de la Sainte-Croix, une foire annuelle qui deviendra pour plusieurs siècles l'un des plus grands marchés d'Angleterre.
+Vers 1210-1250 : dates probables du séjour à Bologne de Roland de Parme, chirurgien de l'école de Salerne, élève de Roger et auteur en 1264 d'une Chirurgia, important traité de chirurgie plus connu sous le nom de Rolandina.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1210_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1210_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +560,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean de Procida (mort en 1298), médecin et diplomate italien[7].
-Vers 1205[8] ou entre 1210 et 1220 : Pierre d'Espagne le Médecin de Compostelle[9] (mort en 1277), auteur de divers traités médicaux, de commentaires sur Hippocrate et Galien et, peut-être, de l'important Thesaurus pauperum.
-Vers 1210 : Guillaume de Salicet (mort en 1277), moine dominicain et médecin lombard[10].
-1210 ou 1211 : Ibn al-Lubudi (mort en 1267 ou 1268), médecin arabe originaire d'Alep, auteur d'un important Recueil de discussions sur cinquante questions de psychologie et de médecine[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean de Procida (mort en 1298), médecin et diplomate italien.
+Vers 1205 ou entre 1210 et 1220 : Pierre d'Espagne le Médecin de Compostelle (mort en 1277), auteur de divers traités médicaux, de commentaires sur Hippocrate et Galien et, peut-être, de l'important Thesaurus pauperum.
+Vers 1210 : Guillaume de Salicet (mort en 1277), moine dominicain et médecin lombard.
+1210 ou 1211 : Ibn al-Lubudi (mort en 1267 ou 1268), médecin arabe originaire d'Alep, auteur d'un important Recueil de discussions sur cinquante questions de psychologie et de médecine.</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1210_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1210_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1210-1215 : Cyprien de Calamizzi (it) (né entre 1125 et 1140), médecin italo-grec, devenu higoumène du monastère de Saint-Nicolas de Calamizzi, près de Reggio et canonisé par l'Église catholique[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1210-1215 : Cyprien de Calamizzi (it) (né entre 1125 et 1140), médecin italo-grec, devenu higoumène du monastère de Saint-Nicolas de Calamizzi, près de Reggio et canonisé par l'Église catholique.</t>
         </is>
       </c>
     </row>
